--- a/Assets/Spreadsheet Localizations/Scripts/Naninovel/Home.xlsx
+++ b/Assets/Spreadsheet Localizations/Scripts/Naninovel/Home.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Projects\OCTO GAMES\Assets\Spreadsheet Localizations\Scripts\Naninovel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98B8ADA-E5E7-497D-938C-4C89A2C63654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05E3B03-EC12-466D-B7FA-6B35202AD76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Template</t>
   </si>
@@ -50,16 +50,19 @@
     <t>Arguments</t>
   </si>
   <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Тут немає чим зайнятися.</t>
   </si>
   <si>
     <t>"Взяти подарунок"</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>There’s nothing to do here.</t>
+  </si>
+  <si>
+    <t>"Take the gift"</t>
   </si>
 </sst>
 </file>
@@ -941,12 +944,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -957,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -965,10 +968,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -976,7 +979,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
